--- a/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
@@ -52,9 +52,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -70,10 +67,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
@@ -188,11 +188,11 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -200,7 +200,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -208,23 +208,23 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
@@ -232,7 +232,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -240,22 +240,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>

--- a/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
@@ -11,75 +11,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>poblacion</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:poblacion</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:poblacion</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -182,100 +179,97 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-030001-A-TC-TM-TP.xlsx
@@ -130,17 +130,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -150,15 +155,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
